--- a/biology/Histoire de la zoologie et de la botanique/Jules_Rémy/Jules_Rémy.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jules_Rémy/Jules_Rémy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jules_R%C3%A9my</t>
+          <t>Jules_Rémy</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jules Ézéchiel Rémy est un naturaliste et explorateur né à Mourmelon-le-Grand le 3 septembre 1825[1], mort à Louvercy, de nos jours Livry-Louvercy (Marne)  le 2 décembre 1893[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jules Ézéchiel Rémy est un naturaliste et explorateur né à Mourmelon-le-Grand le 3 septembre 1825, mort à Louvercy, de nos jours Livry-Louvercy (Marne)  le 2 décembre 1893,.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jules_R%C3%A9my</t>
+          <t>Jules_Rémy</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils de l'instituteur des Grandes-Loges, il commença ses études au petit séminaire de Châlons.
 Explorateur, il parcourut les îles d’Hawaï et de Sandwich (il y rencontra la reine Elisabeta Kinau, et pendant son séjour faillit être empoisonné par un indigène fanatique), visita les Canaries, le Brésil, le Chili, la Bolivie, le Pérou, l’Océanie et resta trois ans à Honolulu, où il sut gagner l’amitié du roi Kamehameha III qui essaya de le convaincre de devenir membre de son gouvernement.
